--- a/target/test-classes/LoginData.xlsx
+++ b/target/test-classes/LoginData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaWorkspace\OrangeHRMTestNGFrameWk\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E710555-2E06-4C45-8AE3-4AC19AC794C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EFD405-851F-4E04-8664-0DB942DCCDE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CAEF68D-0D98-4D11-95E6-A039C36CFF3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -630,12 +630,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
